--- a/excercises/excercises/100.self_flow_well.xlsx
+++ b/excercises/excercises/100.self_flow_well.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
-  <workbookPr updateLinks="always" codeName="WorkbooSFW" hidePivotFieldList="1"/>
+  <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2FBDBC-A039-457F-88F7-1650346564E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A5C2E6-9631-4B48-817C-DAF8E4CFBDF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="self_flow_well" sheetId="108" r:id="rId1"/>
@@ -19,43 +19,41 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Bob_" localSheetId="0">self_flow_well!$C$13</definedName>
-    <definedName name="Dcas_" localSheetId="0">self_flow_well!$C$20</definedName>
-    <definedName name="Dintake_" localSheetId="0">self_flow_well!$C$23</definedName>
-    <definedName name="Dtub_" localSheetId="0">self_flow_well!$C$22</definedName>
-    <definedName name="Dtub_out_" localSheetId="0">self_flow_well!$C$21</definedName>
-    <definedName name="gamma_gas_" localSheetId="0">self_flow_well!$C$8</definedName>
+    <definedName name="Bob_" localSheetId="0">self_flow_well!$C$14</definedName>
+    <definedName name="Dcas_" localSheetId="0">self_flow_well!$C$24</definedName>
+    <definedName name="Dtub_" localSheetId="0">self_flow_well!$C$26</definedName>
+    <definedName name="Dtub_out_" localSheetId="0">self_flow_well!$C$25</definedName>
+    <definedName name="fw_" localSheetId="0">self_flow_well!$C$15</definedName>
+    <definedName name="gamma_gas_" localSheetId="0">self_flow_well!$C$9</definedName>
     <definedName name="gamma_oil_" localSheetId="0">self_flow_well!$C$7</definedName>
-    <definedName name="Hmes_" localSheetId="0">self_flow_well!$C$17</definedName>
-    <definedName name="Hpump_" localSheetId="0">self_flow_well!$C$19</definedName>
+    <definedName name="gamma_wat_">self_flow_well!$C$8</definedName>
+    <definedName name="Hmes_" localSheetId="0">self_flow_well!$C$20</definedName>
+    <definedName name="Htube_">self_flow_well!$C$22</definedName>
+    <definedName name="muob_">self_flow_well!$C$16</definedName>
     <definedName name="N_" localSheetId="0">self_flow_well!$C$36</definedName>
-    <definedName name="Pb_" localSheetId="0">self_flow_well!$C$11</definedName>
-    <definedName name="Pbuf_" localSheetId="0">self_flow_well!$C$24</definedName>
-    <definedName name="Pdis_" localSheetId="0">self_flow_well!$C$28</definedName>
+    <definedName name="Pb_" localSheetId="0">self_flow_well!$C$12</definedName>
+    <definedName name="Pbuf_" localSheetId="0">self_flow_well!$C$27</definedName>
     <definedName name="PI_" localSheetId="0">self_flow_well!$C$34</definedName>
     <definedName name="PI_1">self_flow_well!$B$77</definedName>
-    <definedName name="Pintake_" localSheetId="0">self_flow_well!$C$25</definedName>
     <definedName name="Pres_" localSheetId="0">self_flow_well!$C$33</definedName>
-    <definedName name="Pwf_" localSheetId="0">self_flow_well!$C$27</definedName>
+    <definedName name="PVRstr1_">self_flow_well!$G$21</definedName>
+    <definedName name="Pwf_" localSheetId="0">self_flow_well!$C$28</definedName>
     <definedName name="Pwf_1">self_flow_well!$B$74</definedName>
-    <definedName name="Pwf_test">self_flow_well!$C$18</definedName>
-    <definedName name="Q_test">self_flow_well!$C$17</definedName>
     <definedName name="Qmax_">self_flow_well!$F$73</definedName>
     <definedName name="Qtest_">self_flow_well!$C$39</definedName>
-    <definedName name="Rp_" localSheetId="0">self_flow_well!$C$10</definedName>
-    <definedName name="Rsb_" localSheetId="0">self_flow_well!$C$9</definedName>
+    <definedName name="Rp_" localSheetId="0">self_flow_well!$C$11</definedName>
+    <definedName name="Rsb_" localSheetId="0">self_flow_well!$C$10</definedName>
     <definedName name="Tgrad" localSheetId="0">self_flow_well!$C$32</definedName>
-    <definedName name="Tintake_" localSheetId="0">self_flow_well!$C$26</definedName>
-    <definedName name="Tres_" localSheetId="0">self_flow_well!$C$12</definedName>
-    <definedName name="Udl_" localSheetId="0">self_flow_well!$C$18</definedName>
-    <definedName name="wc_" localSheetId="0">self_flow_well!$C$14</definedName>
+    <definedName name="theta_">self_flow_well!$C$23</definedName>
+    <definedName name="Tres_" localSheetId="0">self_flow_well!$C$13</definedName>
+    <definedName name="Udl_" localSheetId="0">self_flow_well!$C$21</definedName>
+    <definedName name="Udl_">self_flow_well!$C$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -63,24 +61,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>Q</t>
-  </si>
-  <si>
-    <t>Обводненность</t>
-  </si>
-  <si>
-    <t>Дебит</t>
-  </si>
-  <si>
-    <t>кг/м3</t>
-  </si>
-  <si>
-    <t>м3/м3</t>
-  </si>
-  <si>
-    <t>м3/т</t>
   </si>
   <si>
     <t>атм</t>
@@ -119,70 +102,10 @@
     <t>Физико - химические свойства флюида</t>
   </si>
   <si>
-    <t>Удельная плотность нефти</t>
-  </si>
-  <si>
-    <t>Удельная плотность газа</t>
-  </si>
-  <si>
-    <t>Газосодержание при давлении насыщения</t>
-  </si>
-  <si>
-    <t>Газовый фактор</t>
-  </si>
-  <si>
-    <t>Давление насыщения (при пластовой температуре)</t>
-  </si>
-  <si>
-    <t>Пластовая температура</t>
-  </si>
-  <si>
-    <t>Объемный коээфициент нефти (при пластовом давлении и температуре)</t>
-  </si>
-  <si>
     <t>Данные по скважине</t>
   </si>
   <si>
-    <t>Глубина измеренная</t>
-  </si>
-  <si>
-    <t>Удлинение</t>
-  </si>
-  <si>
-    <t>Глубина насоса</t>
-  </si>
-  <si>
-    <t>Диаметр э/к внутр</t>
-  </si>
-  <si>
-    <t>Диаметр НКТ внеш</t>
-  </si>
-  <si>
-    <t>Диаметр НКТ внутр</t>
-  </si>
-  <si>
-    <t>Диамет приемной сетки насоса</t>
-  </si>
-  <si>
-    <t>Давление на устье (буферное)</t>
-  </si>
-  <si>
-    <t>Давление на приеме насоса</t>
-  </si>
-  <si>
-    <t>Температура на приеме насоса</t>
-  </si>
-  <si>
-    <t>Давление на забое</t>
-  </si>
-  <si>
-    <t>Давление на выкиде</t>
-  </si>
-  <si>
     <t>Пласт</t>
-  </si>
-  <si>
-    <t>Темп град</t>
   </si>
   <si>
     <t>Расчет распределения давления в трубе</t>
@@ -207,9 +130,6 @@
   </si>
   <si>
     <t>Qmax</t>
-  </si>
-  <si>
-    <t>Пластовое давление</t>
   </si>
   <si>
     <t>Коэффициет продуктивности</t>
@@ -250,12 +170,444 @@
   <si>
     <t>Расчет распределения давления в скважине</t>
   </si>
+  <si>
+    <t>PVT строка</t>
+  </si>
+  <si>
+    <r>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>o</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b cal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>res</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ob cal</t>
+    </r>
+  </si>
+  <si>
+    <t>dT/dL</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>res</t>
+    </r>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>liq</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>кг/м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/т</t>
+    </r>
+  </si>
+  <si>
+    <t>МПа</t>
+  </si>
+  <si>
+    <t>Ф</t>
+  </si>
+  <si>
+    <r>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>атмa</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>w</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>mes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>mes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>vert</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>cas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OD</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>tub</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>tub</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>buf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>wf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>tube</t>
+    </r>
+  </si>
+  <si>
+    <t>θ</t>
+  </si>
+  <si>
+    <t>°</t>
+  </si>
+  <si>
+    <r>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ob cal</t>
+    </r>
+  </si>
+  <si>
+    <t>сП</t>
+  </si>
+  <si>
+    <t>сепарация</t>
+  </si>
+  <si>
+    <t>пока функции нет?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -296,24 +648,65 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
       <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -329,18 +722,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -378,6 +783,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -386,24 +804,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -411,40 +816,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Iau?iue_AA_1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -537,7 +972,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -594,6 +1029,66 @@
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.849543950267655</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.95022557429936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.285580366571935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.837468142523342</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.587027596851925</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.515373778225225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.604283421037877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.836315194815732</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.194954206284358</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.664883878217353</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73.232048069520502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.883657079134693</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84.608153725441426</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90.395152673799075</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96.235363335292462</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102.12050413205137</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>108.04321379534747</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113.99696364476573</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>119.99263102580271</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>126.06730868002101</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -720,8 +1215,68 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>19.96405131482814</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.810786160067732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.908778571399534</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.241587802605373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.791088185595491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.538425772608051</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.464718259847146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.551738230869539</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.782039638734553</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.139099806163038</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.607592966640638</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73.17345301934003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.823880021041205</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84.547306625093313</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90.333337661150381</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96.172673199993852</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102.05702291834253</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>107.97901744674725</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113.93212066276871</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>119.92667670356218</c:v>
+                </c:pt>
                 <c:pt idx="20">
-                  <c:v>145</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,7 +1448,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -931,7 +1486,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="214621504"/>
@@ -1015,7 +1570,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1053,7 +1608,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="214620928"/>
@@ -1095,7 +1650,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1125,7 +1680,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1201,7 +1756,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1540,7 +2095,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1578,7 +2133,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="215288640"/>
@@ -1662,7 +2217,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1700,7 +2255,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="215288064"/>
@@ -1742,7 +2297,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1772,7 +2327,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1870,67 +2425,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>83.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>94.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>105.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1941,6 +2496,69 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>248.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>239.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>211.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>202.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>193.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>184.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>156.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>147.48120194476127</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>137.89948930654069</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>127.69218142324976</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>116.71793901141332</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>104.77251819000452</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91.540808773895563</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>76.488188244002203</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58.558230480331133</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.941828987286321</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1964,67 +2582,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>83.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>94.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>105.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2035,6 +2653,69 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>177.1122708231394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>177.10073189836965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175.91307109700242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173.81672470307657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170.69862638766543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>166.52543197029607</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160.89214397425835</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>153.33410714349543</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>143.57730228453738</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136.31870237512118</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>134.64487511280223</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>134.12219538505991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>133.6735795454716</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133.28810236434614</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>132.95883015630068</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>132.69588741519354</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132.47833468940669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>132.30136027985111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>132.16162273776175</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>132.05640391693089</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>131.98333580082351</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2058,67 +2739,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>83.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>94.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>105.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,6 +2810,69 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>193.03986606229259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193.03498316704091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192.50987062597864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191.51224698566017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189.99997632694644</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>187.90582134222902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>185.11212552390205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>181.45874263146641</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>176.61861624020176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170.52614570303504</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>165.95606393199108</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>165.30686023939188</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>165.00114067512885</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>164.76146827884094</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>164.55550839511662</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>164.37959421416156</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>164.23092941006772</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>164.10711107252277</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>164.00587672401898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>163.92551648364289</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>163.87632336534344</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2253,7 +2997,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="215291520"/>
@@ -2351,7 +3095,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="215290944"/>
@@ -2396,7 +3140,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2549,6 +3293,69 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>158.18223027908991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141.7104458160706</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126.69567141438131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.78827030585585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107.4308993194466</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.8915109694325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.897211390452497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.14804900486584</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.382325784946516</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.391202161697151</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.013760055693396</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85.12727876521744</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84.349333936147488</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84.210484325611262</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84.075891502023651</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84.450806351403813</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>84.763607640238448</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85.505103500197976</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>86.139496567545009</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87.150893770893006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>88.021957420337074</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2640,6 +3447,69 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>183.52645952574989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171.17135779503323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159.69277650982863</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>149.95458651548975</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>141.41376672541696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>133.97826952181728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127.65600499516576</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>122.30144240410141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>117.61730734733074</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113.46543911001687</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>109.81012024352475</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>106.60894856280333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>103.81739774961906</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>101.39190269388614</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.291681024498885</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>97.479627879870009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.922602255919841</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94.591350741869491</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>93.460237817299571</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92.506890117347865</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>91.711818311677547</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2764,7 +3634,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="40058880"/>
@@ -2862,7 +3732,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="251762880"/>
@@ -2903,7 +3773,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4298,6 +5168,10 @@
     <definedNames>
       <definedName name="getUFVersion"/>
       <definedName name="IPR_PI_sm3dayatm"/>
+      <definedName name="IPR_Pwf_atma"/>
+      <definedName name="MF_p_pipe_atma"/>
+      <definedName name="PVT_encode_string"/>
+      <definedName name="tr_BB_pwf_atma"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -4893,1144 +5767,1632 @@
   <sheetPr codeName="Worksheet_self_flow_well">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:Z137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.265625" customWidth="1"/>
-    <col min="3" max="4" width="9.86328125" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.1328125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
         <v>7.7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="13">
+        <f>gamma_oil_*1000</f>
+        <v>870</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="13">
+        <f>gamma_wat_*1000</f>
+        <v>1000</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="13">
+        <f>gamma_gas_*1.22</f>
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2">
+        <v>80</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="14">
+        <f>Rsb_/gamma_oil_</f>
+        <v>91.954022988505741</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2">
+        <v>80</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="14">
+        <f>Rsb_/gamma_oil_</f>
+        <v>91.954022988505741</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2">
+        <v>150</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="14">
+        <f>Pb_*1.01325</f>
+        <v>151.98750000000001</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2">
+        <v>120</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14">
+        <f>Tres_*9/5+32</f>
+        <v>248</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="11" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:150,000;tres_C:120,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="2">
+        <v>90</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2">
+        <v>125</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="2">
+        <v>73</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="2">
+        <v>62</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4">
-        <f>gamma_oil_*1000</f>
-        <v>750</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="C27" s="2">
+        <v>20</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2">
+        <v>70</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B32" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4">
-        <f>gamma_gas_*1.22</f>
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
+      <c r="D32" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2">
+        <v>250</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="8">
+        <f>[1]!IPR_PI_sm3dayatm(Qtest_,Pwf_,Pres_,fw_,Pb_)</f>
+        <v>0.62097516099356032</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2">
         <v>20</v>
       </c>
-      <c r="C9" s="3">
-        <v>80</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="7">
-        <f>Rsb_/gamma_oil_</f>
-        <v>106.66666666666667</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3">
-        <v>80</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="7">
-        <f>Rsb_/gamma_oil_</f>
-        <v>106.66666666666667</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3">
-        <v>150</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3">
-        <v>120</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1500</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="3">
-        <v>125</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="3">
-        <v>73</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="3">
-        <v>62</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="3">
-        <v>100</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="3">
-        <v>20</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="3">
-        <v>80</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="3">
-        <v>80</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="3">
-        <v>70</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="3">
-        <v>150</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="3">
-        <v>3</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="3">
-        <v>250</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="17" t="e">
-        <f>[1]!IPR_PI_sm3dayatm(Q_,Pwf_,Pres_,wc_,Pb_)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="3">
-        <v>20</v>
-      </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="2">
         <v>100</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-    </row>
-    <row r="41" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:10" ht="26.25" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="C47" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:10" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="5">
         <v>0</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="5">
         <f t="shared" ref="D48:D67" si="0">D49-Tgrad*(C49-C48)/100</f>
         <v>20</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="27">
         <f>self_flow_well!Pbuf_</f>
         <v>20</v>
       </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="J48" s="11"/>
-    </row>
-    <row r="49" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="13">
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="J48" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C49,C48,J49,PVRstr1_,theta_,Dtub_,,D49,D48)</f>
+        <v>19.96405131482814</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="5">
         <f t="shared" ref="C49:C68" si="1">C48+Hmes_/N_</f>
         <v>100</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="J49" s="11"/>
-    </row>
-    <row r="50" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="13">
+      <c r="E49" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C48,C49,E48,PVRstr1_,theta_,Dtub_,,D48,D49)</f>
+        <v>23.849543950267655</v>
+      </c>
+      <c r="J49" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C50,C49,J50,PVRstr1_,theta_,Dtub_,,D50,D49)</f>
+        <v>23.810786160067732</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="5">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E50" s="11"/>
-      <c r="J50" s="11"/>
-    </row>
-    <row r="51" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C51" s="13">
+      <c r="E50" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C49,C50,E49,PVRstr1_,theta_,Dtub_,,D49,D50)</f>
+        <v>27.95022557429936</v>
+      </c>
+      <c r="J50" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C51,C50,J51,PVRstr1_,theta_,Dtub_,,D51,D50)</f>
+        <v>27.908778571399534</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="5">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="E51" s="11"/>
-      <c r="J51" s="11"/>
-    </row>
-    <row r="52" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="13">
+      <c r="E51" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C50,C51,E50,PVRstr1_,theta_,Dtub_,,D50,D51)</f>
+        <v>32.285580366571935</v>
+      </c>
+      <c r="J51" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C52,C51,J52,PVRstr1_,theta_,Dtub_,,D52,D51)</f>
+        <v>32.241587802605373</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="5">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E52" s="11"/>
-      <c r="J52" s="11"/>
-    </row>
-    <row r="53" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C53" s="13">
+      <c r="E52" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C51,C52,E51,PVRstr1_,theta_,Dtub_,,D51,D52)</f>
+        <v>36.837468142523342</v>
+      </c>
+      <c r="J52" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C53,C52,J53,PVRstr1_,theta_,Dtub_,,D53,D52)</f>
+        <v>36.791088185595491</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="5">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="E53" s="11"/>
-      <c r="J53" s="11"/>
-    </row>
-    <row r="54" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C54" s="13">
+      <c r="E53" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C52,C53,E52,PVRstr1_,theta_,Dtub_,,D52,D53)</f>
+        <v>41.587027596851925</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J53" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C54,C53,J54,PVRstr1_,theta_,Dtub_,,D54,D53)</f>
+        <v>41.538425772608051</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="5">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="E54" s="11"/>
-      <c r="J54" s="11"/>
-    </row>
-    <row r="55" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C55" s="13">
+      <c r="E54" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C53,C54,E53,PVRstr1_,theta_,Dtub_,,D53,D54)</f>
+        <v>46.515373778225225</v>
+      </c>
+      <c r="J54" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C55,C54,J55,PVRstr1_,theta_,Dtub_,,D55,D54)</f>
+        <v>46.464718259847146</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="5">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="E55" s="11"/>
-      <c r="J55" s="11"/>
-    </row>
-    <row r="56" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C56" s="13">
+      <c r="E55" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C54,C55,E54,PVRstr1_,theta_,Dtub_,,D54,D55)</f>
+        <v>51.604283421037877</v>
+      </c>
+      <c r="J55" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C56,C55,J56,PVRstr1_,theta_,Dtub_,,D56,D55)</f>
+        <v>51.551738230869539</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="5">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="5">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="E56" s="11"/>
-      <c r="J56" s="11"/>
-    </row>
-    <row r="57" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C57" s="13">
+      <c r="E56" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C55,C56,E55,PVRstr1_,theta_,Dtub_,,D55,D56)</f>
+        <v>56.836315194815732</v>
+      </c>
+      <c r="J56" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C57,C56,J57,PVRstr1_,theta_,Dtub_,,D57,D56)</f>
+        <v>56.782039638734553</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="5">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="E57" s="11"/>
-      <c r="J57" s="11"/>
-    </row>
-    <row r="58" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C58" s="13">
+      <c r="E57" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C56,C57,E56,PVRstr1_,theta_,Dtub_,,D56,D57)</f>
+        <v>62.194954206284358</v>
+      </c>
+      <c r="J57" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C58,C57,J58,PVRstr1_,theta_,Dtub_,,D58,D57)</f>
+        <v>62.139099806163038</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="5">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="5">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="J58" s="11"/>
-    </row>
-    <row r="59" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="13">
+      <c r="E58" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C57,C58,E57,PVRstr1_,theta_,Dtub_,,D57,D58)</f>
+        <v>67.664883878217353</v>
+      </c>
+      <c r="J58" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C59,C58,J59,PVRstr1_,theta_,Dtub_,,D59,D58)</f>
+        <v>67.607592966640638</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="5">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="5">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="E59" s="11"/>
-      <c r="J59" s="11"/>
-    </row>
-    <row r="60" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C60" s="13">
+      <c r="E59" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C58,C59,E58,PVRstr1_,theta_,Dtub_,,D58,D59)</f>
+        <v>73.232048069520502</v>
+      </c>
+      <c r="J59" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C60,C59,J60,PVRstr1_,theta_,Dtub_,,D60,D59)</f>
+        <v>73.17345301934003</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="5">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="5">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="E60" s="11"/>
-      <c r="J60" s="11"/>
-    </row>
-    <row r="61" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C61" s="13">
+      <c r="E60" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C59,C60,E59,PVRstr1_,theta_,Dtub_,,D59,D60)</f>
+        <v>78.883657079134693</v>
+      </c>
+      <c r="J60" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C61,C60,J61,PVRstr1_,theta_,Dtub_,,D61,D60)</f>
+        <v>78.823880021041205</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="5">
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="5">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="E61" s="11"/>
-      <c r="J61" s="11"/>
-    </row>
-    <row r="62" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C62" s="13">
+      <c r="E61" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C60,C61,E60,PVRstr1_,theta_,Dtub_,,D60,D61)</f>
+        <v>84.608153725441426</v>
+      </c>
+      <c r="J61" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C62,C61,J62,PVRstr1_,theta_,Dtub_,,D62,D61)</f>
+        <v>84.547306625093313</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="5">
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="5">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="E62" s="11"/>
-      <c r="J62" s="11"/>
-    </row>
-    <row r="63" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C63" s="13">
+      <c r="E62" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C61,C62,E61,PVRstr1_,theta_,Dtub_,,D61,D62)</f>
+        <v>90.395152673799075</v>
+      </c>
+      <c r="J62" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C63,C62,J63,PVRstr1_,theta_,Dtub_,,D63,D62)</f>
+        <v>90.333337661150381</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="5">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="5">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="E63" s="11"/>
-      <c r="J63" s="11"/>
-    </row>
-    <row r="64" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C64" s="13">
+      <c r="E63" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C62,C63,E62,PVRstr1_,theta_,Dtub_,,D62,D63)</f>
+        <v>96.235363335292462</v>
+      </c>
+      <c r="J63" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C64,C63,J64,PVRstr1_,theta_,Dtub_,,D64,D63)</f>
+        <v>96.172673199993852</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="5">
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="5">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="E64" s="11"/>
-      <c r="J64" s="11"/>
-    </row>
-    <row r="65" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C65" s="13">
+      <c r="E64" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C63,C64,E63,PVRstr1_,theta_,Dtub_,,D63,D64)</f>
+        <v>102.12050413205137</v>
+      </c>
+      <c r="J64" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C65,C64,J65,PVRstr1_,theta_,Dtub_,,D65,D64)</f>
+        <v>102.05702291834253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="5">
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="5">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="E65" s="11"/>
-      <c r="J65" s="11"/>
-    </row>
-    <row r="66" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C66" s="13">
+      <c r="E65" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C64,C65,E64,PVRstr1_,theta_,Dtub_,,D64,D65)</f>
+        <v>108.04321379534747</v>
+      </c>
+      <c r="J65" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C66,C65,J66,PVRstr1_,theta_,Dtub_,,D66,D65)</f>
+        <v>107.97901744674725</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="5">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="E66" s="11"/>
-      <c r="J66" s="11"/>
-    </row>
-    <row r="67" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C67" s="13">
+      <c r="E66" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C65,C66,E65,PVRstr1_,theta_,Dtub_,,D65,D66)</f>
+        <v>113.99696364476573</v>
+      </c>
+      <c r="J66" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C67,C66,J67,PVRstr1_,theta_,Dtub_,,D67,D66)</f>
+        <v>113.93212066276871</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="5">
         <f t="shared" si="1"/>
         <v>1900</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="5">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="E67" s="11"/>
-      <c r="J67" s="11"/>
-    </row>
-    <row r="68" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C68" s="13">
+      <c r="E67" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C66,C67,E66,PVRstr1_,theta_,Dtub_,,D66,D67)</f>
+        <v>119.99263102580271</v>
+      </c>
+      <c r="J67" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C68,C67,J68,PVRstr1_,theta_,Dtub_,,D68,D67)</f>
+        <v>119.92667670356218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="5">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="5">
         <v>80</v>
       </c>
-      <c r="E68" s="11"/>
-      <c r="J68" s="15">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="E68" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C67,C68,E67,PVRstr1_,theta_,Dtub_,,D67,D68)</f>
+        <v>126.06730868002101</v>
+      </c>
+      <c r="J68" s="27">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="27">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="26">
+        <f>E68</f>
+        <v>126.06730868002101</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H75" s="28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H76" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I76" s="9"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="27">
+        <v>1</v>
+      </c>
+      <c r="F77" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E77,fw_,Pb_)</f>
+        <v>248.33333333333334</v>
+      </c>
+      <c r="G77" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E77,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>177.1122708231394</v>
+      </c>
+      <c r="H77" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E77,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>193.03986606229259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E78" s="27">
+        <f t="shared" ref="E78:E97" si="2">E77+Qmax_/N_</f>
+        <v>6.5</v>
+      </c>
+      <c r="F78" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E78,fw_,Pb_)</f>
+        <v>239.16666666666666</v>
+      </c>
+      <c r="G78" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E78,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>177.10073189836965</v>
+      </c>
+      <c r="H78" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E78,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>193.03498316704091</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E79" s="27">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F79" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E79,fw_,Pb_)</f>
+        <v>230</v>
+      </c>
+      <c r="G79" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E79,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>175.91307109700242</v>
+      </c>
+      <c r="H79" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E79,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>192.50987062597864</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E80" s="27">
+        <f t="shared" si="2"/>
+        <v>17.5</v>
+      </c>
+      <c r="F80" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E80,fw_,Pb_)</f>
+        <v>220.83333333333334</v>
+      </c>
+      <c r="G80" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E80,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>173.81672470307657</v>
+      </c>
+      <c r="H80" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E80,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>191.51224698566017</v>
+      </c>
+    </row>
+    <row r="81" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E81" s="27">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F81" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E81,fw_,Pb_)</f>
+        <v>211.66666666666666</v>
+      </c>
+      <c r="G81" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E81,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>170.69862638766543</v>
+      </c>
+      <c r="H81" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E81,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>189.99997632694644</v>
+      </c>
+    </row>
+    <row r="82" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E82" s="27">
+        <f t="shared" si="2"/>
+        <v>28.5</v>
+      </c>
+      <c r="F82" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E82,fw_,Pb_)</f>
+        <v>202.5</v>
+      </c>
+      <c r="G82" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E82,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>166.52543197029607</v>
+      </c>
+      <c r="H82" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E82,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>187.90582134222902</v>
+      </c>
+    </row>
+    <row r="83" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E83" s="27">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="F83" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E83,fw_,Pb_)</f>
+        <v>193.33333333333334</v>
+      </c>
+      <c r="G83" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E83,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>160.89214397425835</v>
+      </c>
+      <c r="H83" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E83,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>185.11212552390205</v>
+      </c>
+    </row>
+    <row r="84" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E84" s="27">
+        <f t="shared" si="2"/>
+        <v>39.5</v>
+      </c>
+      <c r="F84" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E84,fw_,Pb_)</f>
+        <v>184.16666666666666</v>
+      </c>
+      <c r="G84" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E84,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>153.33410714349543</v>
+      </c>
+      <c r="H84" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E84,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>181.45874263146641</v>
+      </c>
+    </row>
+    <row r="85" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E85" s="27">
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>52</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F73" s="22"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" s="20">
-        <f>E68</f>
+      <c r="F85" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E85,fw_,Pb_)</f>
+        <v>175</v>
+      </c>
+      <c r="G85" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E85,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>143.57730228453738</v>
+      </c>
+      <c r="H85" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E85,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>176.61861624020176</v>
+      </c>
+    </row>
+    <row r="86" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E86" s="27">
+        <f t="shared" si="2"/>
+        <v>50.5</v>
+      </c>
+      <c r="F86" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E86,fw_,Pb_)</f>
+        <v>165.83333333333334</v>
+      </c>
+      <c r="G86" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E86,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>136.31870237512118</v>
+      </c>
+      <c r="H86" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E86,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>170.52614570303504</v>
+      </c>
+    </row>
+    <row r="87" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E87" s="27">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F87" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E87,fw_,Pb_)</f>
+        <v>156.66666666666666</v>
+      </c>
+      <c r="G87" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E87,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>134.64487511280223</v>
+      </c>
+      <c r="H87" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E87,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>165.95606393199108</v>
+      </c>
+    </row>
+    <row r="88" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E88" s="27">
+        <f t="shared" si="2"/>
+        <v>61.5</v>
+      </c>
+      <c r="F88" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E88,fw_,Pb_)</f>
+        <v>147.48120194476127</v>
+      </c>
+      <c r="G88" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E88,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>134.12219538505991</v>
+      </c>
+      <c r="H88" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E88,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>165.30686023939188</v>
+      </c>
+    </row>
+    <row r="89" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E89" s="27">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="F89" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E89,fw_,Pb_)</f>
+        <v>137.89948930654069</v>
+      </c>
+      <c r="G89" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E89,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>133.6735795454716</v>
+      </c>
+      <c r="H89" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E89,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>165.00114067512885</v>
+      </c>
+    </row>
+    <row r="90" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E90" s="27">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
+      <c r="F90" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E90,fw_,Pb_)</f>
+        <v>127.69218142324976</v>
+      </c>
+      <c r="G90" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E90,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>133.28810236434614</v>
+      </c>
+      <c r="H90" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E90,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>164.76146827884094</v>
+      </c>
+    </row>
+    <row r="91" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E91" s="27">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="F91" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E91,fw_,Pb_)</f>
+        <v>116.71793901141332</v>
+      </c>
+      <c r="G91" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E91,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>132.95883015630068</v>
+      </c>
+      <c r="H91" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E91,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>164.55550839511662</v>
+      </c>
+    </row>
+    <row r="92" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E92" s="27">
+        <f t="shared" si="2"/>
+        <v>83.5</v>
+      </c>
+      <c r="F92" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E92,fw_,Pb_)</f>
+        <v>104.77251819000452</v>
+      </c>
+      <c r="G92" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E92,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>132.69588741519354</v>
+      </c>
+      <c r="H92" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E92,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>164.37959421416156</v>
+      </c>
+    </row>
+    <row r="93" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E93" s="27">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="F93" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E93,fw_,Pb_)</f>
+        <v>91.540808773895563</v>
+      </c>
+      <c r="G93" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E93,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>132.47833468940669</v>
+      </c>
+      <c r="H93" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E93,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>164.23092941006772</v>
+      </c>
+    </row>
+    <row r="94" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E94" s="27">
+        <f t="shared" si="2"/>
+        <v>94.5</v>
+      </c>
+      <c r="F94" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E94,fw_,Pb_)</f>
+        <v>76.488188244002203</v>
+      </c>
+      <c r="G94" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E94,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>132.30136027985111</v>
+      </c>
+      <c r="H94" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E94,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>164.10711107252277</v>
+      </c>
+    </row>
+    <row r="95" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E95" s="27">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="F95" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E95,fw_,Pb_)</f>
+        <v>58.558230480331133</v>
+      </c>
+      <c r="G95" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E95,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>132.16162273776175</v>
+      </c>
+      <c r="H95" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E95,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>164.00587672401898</v>
+      </c>
+    </row>
+    <row r="96" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E96" s="27">
+        <f t="shared" si="2"/>
+        <v>105.5</v>
+      </c>
+      <c r="F96" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E96,fw_,Pb_)</f>
+        <v>34.941828987286321</v>
+      </c>
+      <c r="G96" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E96,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>132.05640391693089</v>
+      </c>
+      <c r="H96" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E96,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>163.92551648364289</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E97" s="27">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="F97" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E97,fw_,Pb_)</f>
         <v>0</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H75" s="2">
+      <c r="G97" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E97,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>131.98333580082351</v>
+      </c>
+      <c r="H97" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E97,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>163.87632336534344</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C98" s="6"/>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C99" s="6"/>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C100" s="6"/>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C101" s="6"/>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C102" s="6"/>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C103" s="6"/>
+    </row>
+    <row r="104" spans="3:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C104" s="6"/>
+      <c r="H104" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C105" s="6"/>
+      <c r="H105" s="28">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
-        <v>49</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H76" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I76" s="21"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E77" s="19">
-        <v>0</v>
-      </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E78" s="19">
-        <f t="shared" ref="E78:E97" si="2">E77+Qmax_/N_</f>
-        <v>0</v>
-      </c>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E79" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E80" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-    </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E81" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-    </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E82" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-    </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E83" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-    </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E84" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-    </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E85" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-    </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E86" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-    </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E87" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-    </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E88" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-    </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E89" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-    </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E90" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-    </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E91" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-    </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E92" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-    </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E93" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-    </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E94" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-    </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E95" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-    </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E96" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-    </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="E97" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-    </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C98" s="14"/>
-    </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C99" s="14"/>
-    </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C100" s="14"/>
-    </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C101" s="14"/>
-    </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C102" s="14"/>
-    </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C103" s="14"/>
-    </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C104" s="14"/>
-      <c r="H104" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C105" s="14"/>
-      <c r="H105" s="2">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C106" s="6"/>
+      <c r="F106" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H106" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C107" s="6"/>
+      <c r="F107" s="28">
+        <v>10</v>
+      </c>
+      <c r="G107" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F107,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>158.18223027908991</v>
+      </c>
+      <c r="H107" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F107,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>183.52645952574989</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C108" s="6"/>
+      <c r="F108" s="28">
         <v>50</v>
       </c>
-    </row>
-    <row r="106" spans="3:8" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="C106" s="14"/>
-      <c r="F106" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G106" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H106" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C107" s="14"/>
-      <c r="F107" s="23">
-        <v>10</v>
-      </c>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
-    </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C108" s="14"/>
-      <c r="F108" s="23">
-        <v>50</v>
-      </c>
-      <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
-    </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C109" s="14"/>
-      <c r="F109" s="23">
+      <c r="G108" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F108,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>141.7104458160706</v>
+      </c>
+      <c r="H108" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F108,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>171.17135779503323</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C109" s="6"/>
+      <c r="F109" s="28">
         <f>F108+50</f>
         <v>100</v>
       </c>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
-    </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C110" s="14"/>
-      <c r="F110" s="23">
+      <c r="G109" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F109,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>126.69567141438131</v>
+      </c>
+      <c r="H109" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F109,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>159.69277650982863</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C110" s="6"/>
+      <c r="F110" s="28">
         <f t="shared" ref="F110:F127" si="3">F109+50</f>
         <v>150</v>
       </c>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
-    </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C111" s="14"/>
-      <c r="F111" s="23">
+      <c r="G110" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F110,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>115.78827030585585</v>
+      </c>
+      <c r="H110" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F110,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>149.95458651548975</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C111" s="6"/>
+      <c r="F111" s="28">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-    </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C112" s="14"/>
-      <c r="F112" s="23">
+      <c r="G111" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F111,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>107.4308993194466</v>
+      </c>
+      <c r="H111" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F111,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>141.41376672541696</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C112" s="6"/>
+      <c r="F112" s="28">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
-    </row>
-    <row r="113" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C113" s="14"/>
-      <c r="F113" s="23">
+      <c r="G112" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F112,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>100.8915109694325</v>
+      </c>
+      <c r="H112" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F112,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>133.97826952181728</v>
+      </c>
+    </row>
+    <row r="113" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C113" s="6"/>
+      <c r="F113" s="28">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
-    </row>
-    <row r="114" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C114" s="14"/>
-      <c r="F114" s="23">
+      <c r="G113" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F113,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>95.897211390452497</v>
+      </c>
+      <c r="H113" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F113,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>127.65600499516576</v>
+      </c>
+    </row>
+    <row r="114" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C114" s="6"/>
+      <c r="F114" s="28">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="G114" s="11"/>
-      <c r="H114" s="11"/>
-    </row>
-    <row r="115" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C115" s="14"/>
-      <c r="F115" s="23">
+      <c r="G114" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F114,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>92.14804900486584</v>
+      </c>
+      <c r="H114" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F114,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>122.30144240410141</v>
+      </c>
+    </row>
+    <row r="115" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C115" s="6"/>
+      <c r="F115" s="28">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-    </row>
-    <row r="116" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C116" s="14"/>
-      <c r="F116" s="23">
+      <c r="G115" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F115,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>89.382325784946516</v>
+      </c>
+      <c r="H115" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F115,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>117.61730734733074</v>
+      </c>
+    </row>
+    <row r="116" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C116" s="6"/>
+      <c r="F116" s="28">
         <f t="shared" si="3"/>
         <v>450</v>
       </c>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
-    </row>
-    <row r="117" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C117" s="14"/>
-      <c r="F117" s="23">
+      <c r="G116" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F116,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>87.391202161697151</v>
+      </c>
+      <c r="H116" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F116,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>113.46543911001687</v>
+      </c>
+    </row>
+    <row r="117" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C117" s="6"/>
+      <c r="F117" s="28">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
-    </row>
-    <row r="118" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C118" s="14"/>
-      <c r="F118" s="23">
+      <c r="G117" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F117,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>86.013760055693396</v>
+      </c>
+      <c r="H117" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F117,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>109.81012024352475</v>
+      </c>
+    </row>
+    <row r="118" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C118" s="6"/>
+      <c r="F118" s="28">
         <f t="shared" si="3"/>
         <v>550</v>
       </c>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
-    </row>
-    <row r="119" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C119" s="14"/>
-      <c r="F119" s="23">
+      <c r="G118" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F118,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>85.12727876521744</v>
+      </c>
+      <c r="H118" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F118,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>106.60894856280333</v>
+      </c>
+    </row>
+    <row r="119" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C119" s="6"/>
+      <c r="F119" s="28">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
-    </row>
-    <row r="120" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C120" s="14"/>
-      <c r="F120" s="23">
+      <c r="G119" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F119,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>84.349333936147488</v>
+      </c>
+      <c r="H119" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F119,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>103.81739774961906</v>
+      </c>
+    </row>
+    <row r="120" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C120" s="6"/>
+      <c r="F120" s="28">
         <f t="shared" si="3"/>
         <v>650</v>
       </c>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
-    </row>
-    <row r="121" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="F121" s="23">
+      <c r="G120" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F120,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>84.210484325611262</v>
+      </c>
+      <c r="H120" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F120,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>101.39190269388614</v>
+      </c>
+    </row>
+    <row r="121" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F121" s="28">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
-    </row>
-    <row r="122" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="F122" s="23">
+      <c r="G121" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F121,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>84.075891502023651</v>
+      </c>
+      <c r="H121" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F121,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>99.291681024498885</v>
+      </c>
+    </row>
+    <row r="122" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F122" s="28">
         <f t="shared" si="3"/>
         <v>750</v>
       </c>
-      <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
-    </row>
-    <row r="123" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="F123" s="23">
+      <c r="G122" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F122,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>84.450806351403813</v>
+      </c>
+      <c r="H122" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F122,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>97.479627879870009</v>
+      </c>
+    </row>
+    <row r="123" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F123" s="28">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
-    </row>
-    <row r="124" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="F124" s="23">
+      <c r="G123" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F123,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>84.763607640238448</v>
+      </c>
+      <c r="H123" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F123,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>95.922602255919841</v>
+      </c>
+    </row>
+    <row r="124" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F124" s="28">
         <f t="shared" si="3"/>
         <v>850</v>
       </c>
-      <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
-    </row>
-    <row r="125" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="F125" s="23">
+      <c r="G124" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F124,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>85.505103500197976</v>
+      </c>
+      <c r="H124" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F124,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>94.591350741869491</v>
+      </c>
+    </row>
+    <row r="125" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F125" s="28">
         <f>F124+50</f>
         <v>900</v>
       </c>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
-    </row>
-    <row r="126" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="F126" s="23">
+      <c r="G125" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F125,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>86.139496567545009</v>
+      </c>
+      <c r="H125" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F125,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>93.460237817299571</v>
+      </c>
+    </row>
+    <row r="126" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F126" s="28">
         <f t="shared" si="3"/>
         <v>950</v>
       </c>
-      <c r="G126" s="11"/>
-      <c r="H126" s="11"/>
+      <c r="G126" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F126,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>87.150893770893006</v>
+      </c>
+      <c r="H126" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F126,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>92.506890117347865</v>
+      </c>
       <c r="K126" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="F127" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F127" s="28">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
-    </row>
-    <row r="137" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K137" s="16"/>
+      <c r="G127" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F127,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>88.021957420337074</v>
+      </c>
+      <c r="H127" s="29">
+        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F127,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
+        <v>91.711818311677547</v>
+      </c>
+    </row>
+    <row r="137" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K137" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excercises/excercises/100.self_flow_well.xlsx
+++ b/excercises/excercises/100.self_flow_well.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A5C2E6-9631-4B48-817C-DAF8E4CFBDF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FBD2C7-1BC2-434C-8463-DD001516F226}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,30 +24,35 @@
     <definedName name="Dtub_" localSheetId="0">self_flow_well!$C$26</definedName>
     <definedName name="Dtub_out_" localSheetId="0">self_flow_well!$C$25</definedName>
     <definedName name="fw_" localSheetId="0">self_flow_well!$C$15</definedName>
+    <definedName name="fw_2">self_flow_well!$H$76</definedName>
     <definedName name="gamma_gas_" localSheetId="0">self_flow_well!$C$9</definedName>
     <definedName name="gamma_oil_" localSheetId="0">self_flow_well!$C$7</definedName>
     <definedName name="gamma_wat_">self_flow_well!$C$8</definedName>
     <definedName name="Hmes_" localSheetId="0">self_flow_well!$C$20</definedName>
     <definedName name="Htube_">self_flow_well!$C$22</definedName>
     <definedName name="muob_">self_flow_well!$C$16</definedName>
-    <definedName name="N_" localSheetId="0">self_flow_well!$C$36</definedName>
+    <definedName name="N_" localSheetId="0">self_flow_well!$C$37</definedName>
     <definedName name="Pb_" localSheetId="0">self_flow_well!$C$12</definedName>
     <definedName name="Pbuf_" localSheetId="0">self_flow_well!$C$27</definedName>
-    <definedName name="PI_" localSheetId="0">self_flow_well!$C$34</definedName>
-    <definedName name="PI_1">self_flow_well!$B$77</definedName>
-    <definedName name="Pres_" localSheetId="0">self_flow_well!$C$33</definedName>
+    <definedName name="Pcas_">self_flow_well!$C$28</definedName>
+    <definedName name="PI_" localSheetId="0">self_flow_well!$C$35</definedName>
+    <definedName name="PI_1">self_flow_well!$B$78</definedName>
+    <definedName name="Pres_" localSheetId="0">self_flow_well!$C$34</definedName>
     <definedName name="PVRstr1_">self_flow_well!$G$21</definedName>
-    <definedName name="Pwf_" localSheetId="0">self_flow_well!$C$28</definedName>
-    <definedName name="Pwf_1">self_flow_well!$B$74</definedName>
-    <definedName name="Qmax_">self_flow_well!$F$73</definedName>
-    <definedName name="Qtest_">self_flow_well!$C$39</definedName>
+    <definedName name="Pwf_" localSheetId="0">self_flow_well!$C$29</definedName>
+    <definedName name="Pwf_1">self_flow_well!$B$75</definedName>
+    <definedName name="Qmax_">self_flow_well!$F$74</definedName>
+    <definedName name="Qtest_">self_flow_well!$C$40</definedName>
     <definedName name="Rp_" localSheetId="0">self_flow_well!$C$11</definedName>
     <definedName name="Rsb_" localSheetId="0">self_flow_well!$C$10</definedName>
-    <definedName name="Tgrad" localSheetId="0">self_flow_well!$C$32</definedName>
+    <definedName name="Tbuf_">self_flow_well!$C$31</definedName>
+    <definedName name="Tgrad" localSheetId="0">self_flow_well!$C$33</definedName>
     <definedName name="theta_">self_flow_well!$C$23</definedName>
     <definedName name="Tres_" localSheetId="0">self_flow_well!$C$13</definedName>
+    <definedName name="Twf_">self_flow_well!$C$30</definedName>
     <definedName name="Udl_" localSheetId="0">self_flow_well!$C$21</definedName>
     <definedName name="Udl_">self_flow_well!$C$21</definedName>
+    <definedName name="Wellstr1_">self_flow_well!$G$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>Q</t>
   </si>
@@ -597,10 +602,55 @@
     <t>сП</t>
   </si>
   <si>
-    <t>сепарация</t>
+    <t>Строка скважины</t>
   </si>
   <si>
-    <t>пока функции нет?</t>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>wf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>buf</t>
+    </r>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>cas</t>
+    </r>
+  </si>
+  <si>
+    <t>пока функции нет</t>
   </si>
 </sst>
 </file>
@@ -701,7 +751,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,6 +791,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,7 +860,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -880,6 +936,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Iau?iue_AA_1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -987,7 +1049,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>self_flow_well!$E$47</c:f>
+              <c:f>self_flow_well!$E$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1022,7 +1084,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>self_flow_well!$E$48:$E$68</c:f>
+              <c:f>self_flow_well!$E$49:$E$69</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1094,7 +1156,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>self_flow_well!$C$48:$C$68</c:f>
+              <c:f>self_flow_well!$C$49:$C$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1176,7 +1238,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>self_flow_well!$J$47</c:f>
+              <c:f>self_flow_well!$J$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1211,7 +1273,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>self_flow_well!$J$48:$J$68</c:f>
+              <c:f>self_flow_well!$J$49:$J$69</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1283,7 +1345,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>self_flow_well!$C$48:$C$68</c:f>
+              <c:f>self_flow_well!$C$49:$C$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1771,7 +1833,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>self_flow_well!$J$47</c:f>
+              <c:f>self_flow_well!$J$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1806,7 +1868,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>self_flow_well!$N$48:$N$68</c:f>
+              <c:f>self_flow_well!$N$49:$N$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1815,7 +1877,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>self_flow_well!$C$48:$C$68</c:f>
+              <c:f>self_flow_well!$C$49:$C$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1921,7 +1983,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>self_flow_well!$M$48:$M$68</c:f>
+              <c:f>self_flow_well!$M$49:$M$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1930,7 +1992,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>self_flow_well!$C$48:$C$68</c:f>
+              <c:f>self_flow_well!$C$49:$C$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2420,7 +2482,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>self_flow_well!$E$77:$E$97</c:f>
+              <c:f>self_flow_well!$E$78:$E$98</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2492,7 +2554,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>self_flow_well!$F$77:$F$97</c:f>
+              <c:f>self_flow_well!$F$78:$F$98</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2577,7 +2639,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>self_flow_well!$E$77:$E$97</c:f>
+              <c:f>self_flow_well!$E$78:$E$98</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2649,72 +2711,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>self_flow_well!$G$77:$G$97</c:f>
+              <c:f>self_flow_well!$G$78:$G$98</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>177.1122708231394</c:v>
+                  <c:v>173.07801673762009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>177.10073189836965</c:v>
+                  <c:v>164.78898496627406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>175.91307109700242</c:v>
+                  <c:v>158.42028944955655</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>173.81672470307657</c:v>
+                  <c:v>153.33478443244613</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>170.69862638766543</c:v>
+                  <c:v>149.17008303444416</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>166.52543197029607</c:v>
+                  <c:v>145.70559722908649</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>160.89214397425835</c:v>
+                  <c:v>142.80054613893756</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>153.33410714349543</c:v>
+                  <c:v>140.31498607284021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>143.57730228453738</c:v>
+                  <c:v>138.18491593247703</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>136.31870237512118</c:v>
+                  <c:v>136.34026373812333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>134.64487511280223</c:v>
+                  <c:v>134.6452653964551</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>134.12219538505991</c:v>
+                  <c:v>132.95294464685875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>133.6735795454716</c:v>
+                  <c:v>131.55426121298794</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>133.28810236434614</c:v>
+                  <c:v>130.2098185958645</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>132.95883015630068</c:v>
+                  <c:v>129.12249485329889</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>132.69588741519354</c:v>
+                  <c:v>127.98840039484058</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>132.47833468940669</c:v>
+                  <c:v>127.25666512610097</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>132.30136027985111</c:v>
+                  <c:v>126.21353194607163</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>132.16162273776175</c:v>
+                  <c:v>125.6444300865617</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>132.05640391693089</c:v>
+                  <c:v>124.94728194136816</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>131.98333580082351</c:v>
+                  <c:v>124.5171542073078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2734,7 +2796,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>self_flow_well!$E$77:$E$97</c:f>
+              <c:f>self_flow_well!$E$78:$E$98</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2806,72 +2868,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>self_flow_well!$H$77:$H$97</c:f>
+              <c:f>self_flow_well!$H$78:$H$98</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>193.03986606229259</c:v>
+                  <c:v>180.42346621968539</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>193.03498316704091</c:v>
+                  <c:v>173.77216482336149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>192.50987062597864</c:v>
+                  <c:v>168.55537494743996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>191.51224698566017</c:v>
+                  <c:v>164.32217273902523</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>189.99997632694644</c:v>
+                  <c:v>160.83054675450714</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>187.90582134222902</c:v>
+                  <c:v>157.9019021965598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>185.11212552390205</c:v>
+                  <c:v>155.41661870420032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>181.45874263146641</c:v>
+                  <c:v>153.28114892218807</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>176.61861624020176</c:v>
+                  <c:v>151.43377094130412</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>170.52614570303504</c:v>
+                  <c:v>149.82307860613079</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>165.95606393199108</c:v>
+                  <c:v>148.41527608758534</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>165.30686023939188</c:v>
+                  <c:v>147.17543009146564</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>165.00114067512885</c:v>
+                  <c:v>146.07513168316441</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>164.76146827884094</c:v>
+                  <c:v>145.11489376957354</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>164.55550839511662</c:v>
+                  <c:v>144.24955299766009</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>164.37959421416156</c:v>
+                  <c:v>143.48804411732613</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>164.23092941006772</c:v>
+                  <c:v>142.80020290709768</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>164.10711107252277</c:v>
+                  <c:v>142.20973851397235</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>164.00587672401898</c:v>
+                  <c:v>141.66057833629336</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>163.92551648364289</c:v>
+                  <c:v>141.1055264300561</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>163.87632336534344</c:v>
+                  <c:v>140.63550041068413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3217,7 +3279,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>self_flow_well!$F$107:$F$127</c:f>
+              <c:f>self_flow_well!$F$108:$F$128</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3289,72 +3351,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>self_flow_well!$G$107:$G$127</c:f>
+              <c:f>self_flow_well!$H$108:$H$128</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>158.18223027908991</c:v>
+                  <c:v>75.479647003053429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>141.7104458160706</c:v>
+                  <c:v>138.87964920963614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>126.69567141438131</c:v>
+                  <c:v>110.79366394262878</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115.78827030585585</c:v>
+                  <c:v>83.977643280198365</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>107.4308993194466</c:v>
+                  <c:v>67.52424468144919</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100.8915109694325</c:v>
+                  <c:v>60.455586759966366</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.897211390452497</c:v>
+                  <c:v>56.134878471440473</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92.14804900486584</c:v>
+                  <c:v>53.392475824971093</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.382325784946516</c:v>
+                  <c:v>51.603124243912944</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>87.391202161697151</c:v>
+                  <c:v>50.426184929738369</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>86.013760055693396</c:v>
+                  <c:v>49.660887057782155</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>85.12727876521744</c:v>
+                  <c:v>49.182548528359426</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>84.349333936147488</c:v>
+                  <c:v>48.910279555264623</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>84.210484325611262</c:v>
+                  <c:v>48.789640850119817</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>84.075891502023651</c:v>
+                  <c:v>49.107404074937797</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>84.450806351403813</c:v>
+                  <c:v>49.479080996221334</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>84.763607640238448</c:v>
+                  <c:v>51.308059393520935</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>85.505103500197976</c:v>
+                  <c:v>53.136097923585531</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>86.139496567545009</c:v>
+                  <c:v>55.65437546097359</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>87.150893770893006</c:v>
+                  <c:v>58.196440871464539</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>88.021957420337074</c:v>
+                  <c:v>60.66371047453346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3371,7 +3433,7 @@
           <c:order val="1"/>
           <c:xVal>
             <c:numRef>
-              <c:f>self_flow_well!$F$107:$F$127</c:f>
+              <c:f>self_flow_well!$F$108:$F$128</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3443,72 +3505,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>self_flow_well!$H$107:$H$127</c:f>
+              <c:f>self_flow_well!$I$108:$I$128</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>183.52645952574989</c:v>
+                  <c:v>101.94510953945939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>171.17135779503323</c:v>
+                  <c:v>151.90876481139983</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>159.69277650982863</c:v>
+                  <c:v>127.58544787009987</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>149.95458651548975</c:v>
+                  <c:v>100.28028088968408</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>141.41376672541696</c:v>
+                  <c:v>81.486200430179309</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>133.97826952181728</c:v>
+                  <c:v>68.696737719528429</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>127.65600499516576</c:v>
+                  <c:v>62.573121385423093</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>122.30144240410141</c:v>
+                  <c:v>58.456444679357993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>117.61730734733074</c:v>
+                  <c:v>55.594704731972023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>113.46543911001687</c:v>
+                  <c:v>53.578453320282577</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>109.81012024352475</c:v>
+                  <c:v>52.133368267859503</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>106.60894856280333</c:v>
+                  <c:v>51.092396405366664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>103.81739774961906</c:v>
+                  <c:v>50.34546081911855</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>101.39190269388614</c:v>
+                  <c:v>49.81761457055422</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>99.291681024498885</c:v>
+                  <c:v>49.456351003293491</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>97.479627879870009</c:v>
+                  <c:v>49.223957093129769</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>95.922602255919841</c:v>
+                  <c:v>49.092748960356374</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>94.591350741869491</c:v>
+                  <c:v>49.042012437543342</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>93.460237817299571</c:v>
+                  <c:v>49.055984714068487</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>92.506890117347865</c:v>
+                  <c:v>49.558010743650932</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>91.711818311677547</c:v>
+                  <c:v>50.961967375054151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4902,13 +4964,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>182632</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>41266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>49282</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>70401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4940,13 +5002,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>78921</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5045,13 +5107,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>29135</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5083,13 +5145,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>369095</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>508468</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>129901</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5120,15 +5182,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>440531</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>35718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>139373</xdr:colOff>
+      <xdr:colOff>579904</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>70370</xdr:rowOff>
+      <xdr:rowOff>106089</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5171,7 +5233,8 @@
       <definedName name="IPR_Pwf_atma"/>
       <definedName name="MF_p_pipe_atma"/>
       <definedName name="PVT_encode_string"/>
-      <definedName name="tr_BB_pwf_atma"/>
+      <definedName name="well_encode_string"/>
+      <definedName name="well_pwf_plin_atma"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -5767,10 +5830,10 @@
   <sheetPr codeName="Worksheet_self_flow_well">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Z137"/>
+  <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -5917,14 +5980,14 @@
         <v>43</v>
       </c>
       <c r="C13" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="14">
         <f>Tres_*9/5+32</f>
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>52</v>
@@ -6005,7 +6068,7 @@
       </c>
       <c r="G21" s="11" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:150,000;tres_C:120,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -6037,6 +6100,10 @@
       <c r="D22" s="15" t="s">
         <v>4</v>
       </c>
+      <c r="G22" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:26" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
@@ -6048,6 +6115,25 @@
       <c r="D23" s="15" t="s">
         <v>65</v>
       </c>
+      <c r="G23" s="31" t="str">
+        <f>[1]!well_encode_string(Hmes_,Htube_,Udl_,Dcas_,Dtub_,0,,Twf_,Tbuf_)</f>
+        <v>hperf_m:2000,00000;hpump_m:2000,00000;udl_m:0,00000;d_cas_mm:125,00000;dtub_mm:62,00000;dchoke_mm:0,00000;roughness_m:0,00010;tbh_C:80,00000;twh_C:20,00000;</v>
+      </c>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B24" s="20" t="s">
@@ -6095,1304 +6181,1420 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B28" s="20" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="29" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2">
+        <v>70</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="2">
+        <f>Tres_</f>
+        <v>80</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="13">
+        <f>$D$49</f>
+        <v>20</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B32" s="15" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C33" s="2">
         <v>3</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D33" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="15" t="s">
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C34" s="2">
         <v>250</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D34" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="15" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C35" s="8">
         <f>[1]!IPR_PI_sm3dayatm(Qtest_,Pwf_,Pres_,fw_,Pb_)</f>
         <v>0.62097516099356032</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D35" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="15" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C37" s="2">
         <v>20</v>
       </c>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C40" s="2">
         <v>100</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D40" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
-    </row>
     <row r="41" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>19</v>
-      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:10" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="24" t="s">
+    <row r="47" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:10" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D48" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E48" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J47" s="23" t="s">
+      <c r="J48" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="5">
+    <row r="49" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="5">
         <v>0</v>
       </c>
-      <c r="D48" s="5">
-        <f t="shared" ref="D48:D67" si="0">D49-Tgrad*(C49-C48)/100</f>
+      <c r="D49" s="5">
+        <f t="shared" ref="D49:D68" si="0">D50-Tgrad*(C50-C49)/100</f>
         <v>20</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E49" s="27">
         <f>self_flow_well!Pbuf_</f>
         <v>20</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="J48" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C49,C48,J49,PVRstr1_,theta_,Dtub_,,D49,D48)</f>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="J49" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C50,C49,J50,PVRstr1_,theta_,Dtub_,,D50,D49)</f>
         <v>19.96405131482814</v>
       </c>
     </row>
-    <row r="49" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="5">
-        <f t="shared" ref="C49:C68" si="1">C48+Hmes_/N_</f>
+    <row r="50" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="5">
+        <f t="shared" ref="C50:C69" si="1">C49+Hmes_/N_</f>
         <v>100</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D50" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="E49" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C48,C49,E48,PVRstr1_,theta_,Dtub_,,D48,D49)</f>
-        <v>23.849543950267655</v>
-      </c>
-      <c r="J49" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C50,C49,J50,PVRstr1_,theta_,Dtub_,,D50,D49)</f>
-        <v>23.810786160067732</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="5">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="D50" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
       <c r="E50" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C49,C50,E49,PVRstr1_,theta_,Dtub_,,D49,D50)</f>
-        <v>27.95022557429936</v>
+        <v>23.849543950267655</v>
       </c>
       <c r="J50" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C51,C50,J51,PVRstr1_,theta_,Dtub_,,D51,D50)</f>
-        <v>27.908778571399534</v>
+        <v>23.810786160067732</v>
       </c>
     </row>
     <row r="51" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C51" s="5">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D51" s="5">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E51" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C50,C51,E50,PVRstr1_,theta_,Dtub_,,D50,D51)</f>
-        <v>32.285580366571935</v>
+        <v>27.95022557429936</v>
       </c>
       <c r="J51" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C52,C51,J52,PVRstr1_,theta_,Dtub_,,D52,D51)</f>
-        <v>32.241587802605373</v>
+        <v>27.908778571399534</v>
       </c>
     </row>
     <row r="52" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C52" s="5">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D52" s="5">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E52" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C51,C52,E51,PVRstr1_,theta_,Dtub_,,D51,D52)</f>
-        <v>36.837468142523342</v>
+        <v>32.285580366571935</v>
       </c>
       <c r="J52" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C53,C52,J53,PVRstr1_,theta_,Dtub_,,D53,D52)</f>
-        <v>36.791088185595491</v>
+        <v>32.241587802605373</v>
       </c>
     </row>
     <row r="53" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C53" s="5">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="D53" s="5">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E53" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C52,C53,E52,PVRstr1_,theta_,Dtub_,,D52,D53)</f>
-        <v>41.587027596851925</v>
-      </c>
-      <c r="G53" s="30" t="s">
-        <v>68</v>
+        <v>36.837468142523342</v>
       </c>
       <c r="J53" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C54,C53,J54,PVRstr1_,theta_,Dtub_,,D54,D53)</f>
-        <v>41.538425772608051</v>
+        <v>36.791088185595491</v>
       </c>
     </row>
     <row r="54" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C54" s="5">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D54" s="5">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E54" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C53,C54,E53,PVRstr1_,theta_,Dtub_,,D53,D54)</f>
-        <v>46.515373778225225</v>
-      </c>
+        <v>41.587027596851925</v>
+      </c>
+      <c r="G54" s="30"/>
       <c r="J54" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C55,C54,J55,PVRstr1_,theta_,Dtub_,,D55,D54)</f>
-        <v>46.464718259847146</v>
+        <v>41.538425772608051</v>
       </c>
     </row>
     <row r="55" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C55" s="5">
         <f t="shared" si="1"/>
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="D55" s="5">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E55" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C54,C55,E54,PVRstr1_,theta_,Dtub_,,D54,D55)</f>
-        <v>51.604283421037877</v>
+        <v>46.515373778225225</v>
       </c>
       <c r="J55" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C56,C55,J56,PVRstr1_,theta_,Dtub_,,D56,D55)</f>
-        <v>51.551738230869539</v>
+        <v>46.464718259847146</v>
       </c>
     </row>
     <row r="56" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C56" s="5">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="D56" s="5">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E56" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C55,C56,E55,PVRstr1_,theta_,Dtub_,,D55,D56)</f>
-        <v>56.836315194815732</v>
+        <v>51.604283421037877</v>
       </c>
       <c r="J56" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C57,C56,J57,PVRstr1_,theta_,Dtub_,,D57,D56)</f>
-        <v>56.782039638734553</v>
+        <v>51.551738230869539</v>
       </c>
     </row>
     <row r="57" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C57" s="5">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="D57" s="5">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E57" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C56,C57,E56,PVRstr1_,theta_,Dtub_,,D56,D57)</f>
-        <v>62.194954206284358</v>
+        <v>56.836315194815732</v>
       </c>
       <c r="J57" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C58,C57,J58,PVRstr1_,theta_,Dtub_,,D58,D57)</f>
-        <v>62.139099806163038</v>
+        <v>56.782039638734553</v>
       </c>
     </row>
     <row r="58" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C58" s="5">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="D58" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E58" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C57,C58,E57,PVRstr1_,theta_,Dtub_,,D57,D58)</f>
-        <v>67.664883878217353</v>
+        <v>62.194954206284358</v>
       </c>
       <c r="J58" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C59,C58,J59,PVRstr1_,theta_,Dtub_,,D59,D58)</f>
-        <v>67.607592966640638</v>
+        <v>62.139099806163038</v>
       </c>
     </row>
     <row r="59" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C59" s="5">
         <f t="shared" si="1"/>
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D59" s="5">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E59" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C58,C59,E58,PVRstr1_,theta_,Dtub_,,D58,D59)</f>
-        <v>73.232048069520502</v>
+        <v>67.664883878217353</v>
       </c>
       <c r="J59" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C60,C59,J60,PVRstr1_,theta_,Dtub_,,D60,D59)</f>
-        <v>73.17345301934003</v>
+        <v>67.607592966640638</v>
       </c>
     </row>
     <row r="60" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C60" s="5">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="D60" s="5">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E60" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C59,C60,E59,PVRstr1_,theta_,Dtub_,,D59,D60)</f>
-        <v>78.883657079134693</v>
+        <v>73.232048069520502</v>
       </c>
       <c r="J60" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C61,C60,J61,PVRstr1_,theta_,Dtub_,,D61,D60)</f>
-        <v>78.823880021041205</v>
+        <v>73.17345301934003</v>
       </c>
     </row>
     <row r="61" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C61" s="5">
         <f t="shared" si="1"/>
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="D61" s="5">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E61" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C60,C61,E60,PVRstr1_,theta_,Dtub_,,D60,D61)</f>
-        <v>84.608153725441426</v>
+        <v>78.883657079134693</v>
       </c>
       <c r="J61" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C62,C61,J62,PVRstr1_,theta_,Dtub_,,D62,D61)</f>
-        <v>84.547306625093313</v>
+        <v>78.823880021041205</v>
       </c>
     </row>
     <row r="62" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C62" s="5">
         <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D62" s="5">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E62" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C61,C62,E61,PVRstr1_,theta_,Dtub_,,D61,D62)</f>
-        <v>90.395152673799075</v>
+        <v>84.608153725441426</v>
       </c>
       <c r="J62" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C63,C62,J63,PVRstr1_,theta_,Dtub_,,D63,D62)</f>
-        <v>90.333337661150381</v>
+        <v>84.547306625093313</v>
       </c>
     </row>
     <row r="63" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C63" s="5">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="D63" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E63" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C62,C63,E62,PVRstr1_,theta_,Dtub_,,D62,D63)</f>
-        <v>96.235363335292462</v>
+        <v>90.395152673799075</v>
       </c>
       <c r="J63" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C64,C63,J64,PVRstr1_,theta_,Dtub_,,D64,D63)</f>
-        <v>96.172673199993852</v>
+        <v>90.333337661150381</v>
       </c>
     </row>
     <row r="64" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C64" s="5">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="D64" s="5">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E64" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C63,C64,E63,PVRstr1_,theta_,Dtub_,,D63,D64)</f>
-        <v>102.12050413205137</v>
+        <v>96.235363335292462</v>
       </c>
       <c r="J64" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C65,C64,J65,PVRstr1_,theta_,Dtub_,,D65,D64)</f>
-        <v>102.05702291834253</v>
+        <v>96.172673199993852</v>
       </c>
     </row>
     <row r="65" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C65" s="5">
         <f t="shared" si="1"/>
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="D65" s="5">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E65" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C64,C65,E64,PVRstr1_,theta_,Dtub_,,D64,D65)</f>
-        <v>108.04321379534747</v>
+        <v>102.12050413205137</v>
       </c>
       <c r="J65" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C66,C65,J66,PVRstr1_,theta_,Dtub_,,D66,D65)</f>
-        <v>107.97901744674725</v>
+        <v>102.05702291834253</v>
       </c>
     </row>
     <row r="66" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C66" s="5">
         <f t="shared" si="1"/>
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="D66" s="5">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E66" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C65,C66,E65,PVRstr1_,theta_,Dtub_,,D65,D66)</f>
-        <v>113.99696364476573</v>
+        <v>108.04321379534747</v>
       </c>
       <c r="J66" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C67,C66,J67,PVRstr1_,theta_,Dtub_,,D67,D66)</f>
-        <v>113.93212066276871</v>
+        <v>107.97901744674725</v>
       </c>
     </row>
     <row r="67" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C67" s="5">
         <f t="shared" si="1"/>
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="D67" s="5">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E67" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C66,C67,E66,PVRstr1_,theta_,Dtub_,,D66,D67)</f>
-        <v>119.99263102580271</v>
+        <v>113.99696364476573</v>
       </c>
       <c r="J67" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C68,C67,J68,PVRstr1_,theta_,Dtub_,,D68,D67)</f>
-        <v>119.92667670356218</v>
+        <v>113.93212066276871</v>
       </c>
     </row>
     <row r="68" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C68" s="5">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="D68" s="5">
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>77</v>
       </c>
       <c r="E68" s="29">
         <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C67,C68,E67,PVRstr1_,theta_,Dtub_,,D67,D68)</f>
+        <v>119.99263102580271</v>
+      </c>
+      <c r="J68" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C69,C68,J69,PVRstr1_,theta_,Dtub_,,D69,D68)</f>
+        <v>119.92667670356218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="5">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="D69" s="5">
+        <f>Tres_</f>
+        <v>80</v>
+      </c>
+      <c r="E69" s="29">
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C68,C69,E68,PVRstr1_,theta_,Dtub_,,D68,D69)</f>
         <v>126.06730868002101</v>
       </c>
-      <c r="J68" s="27">
+      <c r="J69" s="27">
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="70" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>21</v>
       </c>
-      <c r="G71" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="G72" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>26</v>
       </c>
-      <c r="E73" s="15" t="s">
+      <c r="E74" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F73" s="27">
+      <c r="F74" s="27">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="12" t="s">
+    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B74" s="26">
-        <f>E68</f>
+      <c r="B75" s="26">
+        <f>E69</f>
         <v>126.06730868002101</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C75" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H74" s="20" t="s">
+      <c r="H75" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H75" s="28">
-        <v>50</v>
-      </c>
-    </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="H76" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>23</v>
       </c>
-      <c r="E76" s="22" t="s">
+      <c r="E77" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F76" s="22" t="s">
+      <c r="F77" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G76" s="22" t="s">
+      <c r="G77" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H76" s="22" t="s">
+      <c r="H77" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I76" s="9"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="12" t="s">
+      <c r="I77" s="9"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="26">
+      <c r="B78" s="26">
         <v>0.6</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E77" s="27">
+      <c r="E78" s="27">
         <v>1</v>
-      </c>
-      <c r="F77" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E77,fw_,Pb_)</f>
-        <v>248.33333333333334</v>
-      </c>
-      <c r="G77" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E77,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>177.1122708231394</v>
-      </c>
-      <c r="H77" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E77,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>193.03986606229259</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E78" s="27">
-        <f t="shared" ref="E78:E97" si="2">E77+Qmax_/N_</f>
-        <v>6.5</v>
       </c>
       <c r="F78" s="29">
         <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E78,fw_,Pb_)</f>
-        <v>239.16666666666666</v>
+        <v>248.33333333333334</v>
       </c>
       <c r="G78" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E78,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>177.10073189836965</v>
+        <f>[1]!well_pwf_plin_atma(E78,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>173.07801673762009</v>
       </c>
       <c r="H78" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E78,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>193.03498316704091</v>
+        <f>[1]!well_pwf_plin_atma(E78,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>180.42346621968539</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E79" s="27">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" ref="E79:E98" si="2">E78+Qmax_/N_</f>
+        <v>6.5</v>
       </c>
       <c r="F79" s="29">
         <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E79,fw_,Pb_)</f>
-        <v>230</v>
+        <v>239.16666666666666</v>
       </c>
       <c r="G79" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E79,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>175.91307109700242</v>
+        <f>[1]!well_pwf_plin_atma(E79,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>164.78898496627406</v>
       </c>
       <c r="H79" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E79,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>192.50987062597864</v>
+        <f>[1]!well_pwf_plin_atma(E79,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>173.77216482336149</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E80" s="27">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="F80" s="29">
         <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E80,fw_,Pb_)</f>
-        <v>220.83333333333334</v>
+        <v>230</v>
       </c>
       <c r="G80" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E80,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>173.81672470307657</v>
+        <f>[1]!well_pwf_plin_atma(E80,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>158.42028944955655</v>
       </c>
       <c r="H80" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E80,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>191.51224698566017</v>
+        <f>[1]!well_pwf_plin_atma(E80,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>168.55537494743996</v>
       </c>
     </row>
     <row r="81" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E81" s="27">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="F81" s="29">
         <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E81,fw_,Pb_)</f>
-        <v>211.66666666666666</v>
+        <v>220.83333333333334</v>
       </c>
       <c r="G81" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E81,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>170.69862638766543</v>
+        <f>[1]!well_pwf_plin_atma(E81,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>153.33478443244613</v>
       </c>
       <c r="H81" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E81,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>189.99997632694644</v>
+        <f>[1]!well_pwf_plin_atma(E81,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>164.32217273902523</v>
       </c>
     </row>
     <row r="82" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E82" s="27">
         <f t="shared" si="2"/>
-        <v>28.5</v>
+        <v>23</v>
       </c>
       <c r="F82" s="29">
         <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E82,fw_,Pb_)</f>
-        <v>202.5</v>
+        <v>211.66666666666666</v>
       </c>
       <c r="G82" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E82,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>166.52543197029607</v>
+        <f>[1]!well_pwf_plin_atma(E82,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>149.17008303444416</v>
       </c>
       <c r="H82" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E82,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>187.90582134222902</v>
+        <f>[1]!well_pwf_plin_atma(E82,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>160.83054675450714</v>
       </c>
     </row>
     <row r="83" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E83" s="27">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>28.5</v>
       </c>
       <c r="F83" s="29">
         <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E83,fw_,Pb_)</f>
-        <v>193.33333333333334</v>
+        <v>202.5</v>
       </c>
       <c r="G83" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E83,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>160.89214397425835</v>
+        <f>[1]!well_pwf_plin_atma(E83,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>145.70559722908649</v>
       </c>
       <c r="H83" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E83,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>185.11212552390205</v>
+        <f>[1]!well_pwf_plin_atma(E83,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>157.9019021965598</v>
       </c>
     </row>
     <row r="84" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E84" s="27">
         <f t="shared" si="2"/>
-        <v>39.5</v>
+        <v>34</v>
       </c>
       <c r="F84" s="29">
         <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E84,fw_,Pb_)</f>
-        <v>184.16666666666666</v>
+        <v>193.33333333333334</v>
       </c>
       <c r="G84" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E84,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>153.33410714349543</v>
+        <f>[1]!well_pwf_plin_atma(E84,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>142.80054613893756</v>
       </c>
       <c r="H84" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E84,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>181.45874263146641</v>
+        <f>[1]!well_pwf_plin_atma(E84,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>155.41661870420032</v>
       </c>
     </row>
     <row r="85" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E85" s="27">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>39.5</v>
       </c>
       <c r="F85" s="29">
         <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E85,fw_,Pb_)</f>
-        <v>175</v>
+        <v>184.16666666666666</v>
       </c>
       <c r="G85" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E85,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>143.57730228453738</v>
+        <f>[1]!well_pwf_plin_atma(E85,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>140.31498607284021</v>
       </c>
       <c r="H85" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E85,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>176.61861624020176</v>
+        <f>[1]!well_pwf_plin_atma(E85,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>153.28114892218807</v>
       </c>
     </row>
     <row r="86" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E86" s="27">
         <f t="shared" si="2"/>
-        <v>50.5</v>
+        <v>45</v>
       </c>
       <c r="F86" s="29">
         <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E86,fw_,Pb_)</f>
-        <v>165.83333333333334</v>
+        <v>175</v>
       </c>
       <c r="G86" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E86,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>136.31870237512118</v>
+        <f>[1]!well_pwf_plin_atma(E86,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>138.18491593247703</v>
       </c>
       <c r="H86" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E86,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>170.52614570303504</v>
+        <f>[1]!well_pwf_plin_atma(E86,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>151.43377094130412</v>
       </c>
     </row>
     <row r="87" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E87" s="27">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>50.5</v>
       </c>
       <c r="F87" s="29">
         <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E87,fw_,Pb_)</f>
-        <v>156.66666666666666</v>
+        <v>165.83333333333334</v>
       </c>
       <c r="G87" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E87,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>134.64487511280223</v>
+        <f>[1]!well_pwf_plin_atma(E87,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>136.34026373812333</v>
       </c>
       <c r="H87" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E87,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>165.95606393199108</v>
+        <f>[1]!well_pwf_plin_atma(E87,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>149.82307860613079</v>
       </c>
     </row>
     <row r="88" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E88" s="27">
         <f t="shared" si="2"/>
-        <v>61.5</v>
+        <v>56</v>
       </c>
       <c r="F88" s="29">
         <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E88,fw_,Pb_)</f>
-        <v>147.48120194476127</v>
+        <v>156.66666666666666</v>
       </c>
       <c r="G88" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E88,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>134.12219538505991</v>
+        <f>[1]!well_pwf_plin_atma(E88,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>134.6452653964551</v>
       </c>
       <c r="H88" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E88,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>165.30686023939188</v>
+        <f>[1]!well_pwf_plin_atma(E88,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>148.41527608758534</v>
       </c>
     </row>
     <row r="89" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E89" s="27">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>61.5</v>
       </c>
       <c r="F89" s="29">
         <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E89,fw_,Pb_)</f>
-        <v>137.89948930654069</v>
+        <v>147.48120194476127</v>
       </c>
       <c r="G89" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E89,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>133.6735795454716</v>
+        <f>[1]!well_pwf_plin_atma(E89,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>132.95294464685875</v>
       </c>
       <c r="H89" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E89,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>165.00114067512885</v>
+        <f>[1]!well_pwf_plin_atma(E89,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>147.17543009146564</v>
       </c>
     </row>
     <row r="90" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E90" s="27">
         <f t="shared" si="2"/>
-        <v>72.5</v>
+        <v>67</v>
       </c>
       <c r="F90" s="29">
         <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E90,fw_,Pb_)</f>
-        <v>127.69218142324976</v>
+        <v>137.89948930654069</v>
       </c>
       <c r="G90" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E90,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>133.28810236434614</v>
+        <f>[1]!well_pwf_plin_atma(E90,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>131.55426121298794</v>
       </c>
       <c r="H90" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E90,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>164.76146827884094</v>
+        <f>[1]!well_pwf_plin_atma(E90,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>146.07513168316441</v>
       </c>
     </row>
     <row r="91" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E91" s="27">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>72.5</v>
       </c>
       <c r="F91" s="29">
         <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E91,fw_,Pb_)</f>
-        <v>116.71793901141332</v>
+        <v>127.69218142324976</v>
       </c>
       <c r="G91" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E91,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>132.95883015630068</v>
+        <f>[1]!well_pwf_plin_atma(E91,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>130.2098185958645</v>
       </c>
       <c r="H91" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E91,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>164.55550839511662</v>
+        <f>[1]!well_pwf_plin_atma(E91,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>145.11489376957354</v>
       </c>
     </row>
     <row r="92" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E92" s="27">
         <f t="shared" si="2"/>
-        <v>83.5</v>
+        <v>78</v>
       </c>
       <c r="F92" s="29">
         <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E92,fw_,Pb_)</f>
-        <v>104.77251819000452</v>
+        <v>116.71793901141332</v>
       </c>
       <c r="G92" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E92,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>132.69588741519354</v>
+        <f>[1]!well_pwf_plin_atma(E92,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>129.12249485329889</v>
       </c>
       <c r="H92" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E92,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>164.37959421416156</v>
+        <f>[1]!well_pwf_plin_atma(E92,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>144.24955299766009</v>
       </c>
     </row>
     <row r="93" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E93" s="27">
         <f t="shared" si="2"/>
-        <v>89</v>
+        <v>83.5</v>
       </c>
       <c r="F93" s="29">
         <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E93,fw_,Pb_)</f>
-        <v>91.540808773895563</v>
+        <v>104.77251819000452</v>
       </c>
       <c r="G93" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E93,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>132.47833468940669</v>
+        <f>[1]!well_pwf_plin_atma(E93,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>127.98840039484058</v>
       </c>
       <c r="H93" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E93,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>164.23092941006772</v>
+        <f>[1]!well_pwf_plin_atma(E93,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>143.48804411732613</v>
       </c>
     </row>
     <row r="94" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E94" s="27">
         <f t="shared" si="2"/>
-        <v>94.5</v>
+        <v>89</v>
       </c>
       <c r="F94" s="29">
         <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E94,fw_,Pb_)</f>
-        <v>76.488188244002203</v>
+        <v>91.540808773895563</v>
       </c>
       <c r="G94" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E94,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>132.30136027985111</v>
+        <f>[1]!well_pwf_plin_atma(E94,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>127.25666512610097</v>
       </c>
       <c r="H94" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E94,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>164.10711107252277</v>
+        <f>[1]!well_pwf_plin_atma(E94,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>142.80020290709768</v>
       </c>
     </row>
     <row r="95" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E95" s="27">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>94.5</v>
       </c>
       <c r="F95" s="29">
         <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E95,fw_,Pb_)</f>
-        <v>58.558230480331133</v>
+        <v>76.488188244002203</v>
       </c>
       <c r="G95" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E95,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>132.16162273776175</v>
+        <f>[1]!well_pwf_plin_atma(E95,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>126.21353194607163</v>
       </c>
       <c r="H95" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E95,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>164.00587672401898</v>
+        <f>[1]!well_pwf_plin_atma(E95,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>142.20973851397235</v>
       </c>
     </row>
     <row r="96" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E96" s="27">
         <f t="shared" si="2"/>
-        <v>105.5</v>
+        <v>100</v>
       </c>
       <c r="F96" s="29">
         <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E96,fw_,Pb_)</f>
-        <v>34.941828987286321</v>
+        <v>58.558230480331133</v>
       </c>
       <c r="G96" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E96,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>132.05640391693089</v>
+        <f>[1]!well_pwf_plin_atma(E96,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>125.6444300865617</v>
       </c>
       <c r="H96" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E96,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>163.92551648364289</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.2">
+        <f>[1]!well_pwf_plin_atma(E96,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>141.66057833629336</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E97" s="27">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>105.5</v>
       </c>
       <c r="F97" s="29">
         <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E97,fw_,Pb_)</f>
+        <v>34.941828987286321</v>
+      </c>
+      <c r="G97" s="29">
+        <f>[1]!well_pwf_plin_atma(E97,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>124.94728194136816</v>
+      </c>
+      <c r="H97" s="29">
+        <f>[1]!well_pwf_plin_atma(E97,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>141.1055264300561</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E98" s="27">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="F98" s="29">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E98,fw_,Pb_)</f>
         <v>0</v>
       </c>
-      <c r="G97" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E97,fw_,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>131.98333580082351</v>
-      </c>
-      <c r="H97" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,E97,$H$75,Rp_,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>163.87632336534344</v>
-      </c>
-    </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C98" s="6"/>
-    </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G98" s="29">
+        <f>[1]!well_pwf_plin_atma(E98,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>124.5171542073078</v>
+      </c>
+      <c r="H98" s="29">
+        <f>[1]!well_pwf_plin_atma(E98,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
+        <v>140.63550041068413</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C99" s="6"/>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C102" s="6"/>
     </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="3:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C104" s="6"/>
-      <c r="H104" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C105" s="6"/>
-      <c r="H105" s="28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I105" s="33"/>
+    </row>
+    <row r="106" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C106" s="6"/>
-      <c r="F106" s="15" t="s">
+      <c r="I106" s="17"/>
+    </row>
+    <row r="107" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C107" s="6"/>
+      <c r="F107" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G106" s="22" t="s">
+      <c r="G107" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H107" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H106" s="22" t="s">
+      <c r="I107" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C107" s="6"/>
-      <c r="F107" s="28">
-        <v>10</v>
-      </c>
-      <c r="G107" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F107,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>158.18223027908991</v>
-      </c>
-      <c r="H107" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F107,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>183.52645952574989</v>
-      </c>
-    </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C108" s="6"/>
       <c r="F108" s="28">
-        <v>50</v>
-      </c>
-      <c r="G108" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F108,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>141.7104458160706</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F108,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:10,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H108" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F108,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>171.17135779503323</v>
-      </c>
-    </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.2">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G108,,1,,,,,,1)</f>
+        <v>75.479647003053429</v>
+      </c>
+      <c r="I108" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G108,,1,,,,,,1)</f>
+        <v>101.94510953945939</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C109" s="6"/>
       <c r="F109" s="28">
-        <f>F108+50</f>
-        <v>100</v>
-      </c>
-      <c r="G109" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F109,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>126.69567141438131</v>
+        <v>50</v>
+      </c>
+      <c r="G109" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F109,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:50,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H109" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F109,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>159.69277650982863</v>
-      </c>
-    </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.2">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G109,,1,,,,,,1)</f>
+        <v>138.87964920963614</v>
+      </c>
+      <c r="I109" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G109,,1,,,,,,1)</f>
+        <v>151.90876481139983</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C110" s="6"/>
       <c r="F110" s="28">
-        <f t="shared" ref="F110:F127" si="3">F109+50</f>
-        <v>150</v>
-      </c>
-      <c r="G110" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F110,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>115.78827030585585</v>
+        <f>F109+50</f>
+        <v>100</v>
+      </c>
+      <c r="G110" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F110,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:100,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H110" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F110,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>149.95458651548975</v>
-      </c>
-    </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.2">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G110,,1,,,,,,1)</f>
+        <v>110.79366394262878</v>
+      </c>
+      <c r="I110" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G110,,1,,,,,,1)</f>
+        <v>127.58544787009987</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C111" s="6"/>
       <c r="F111" s="28">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="G111" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F111,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>107.4308993194466</v>
+        <f t="shared" ref="F111:F128" si="3">F110+50</f>
+        <v>150</v>
+      </c>
+      <c r="G111" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F111,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:150,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H111" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F111,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>141.41376672541696</v>
-      </c>
-    </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.2">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G111,,1,,,,,,1)</f>
+        <v>83.977643280198365</v>
+      </c>
+      <c r="I111" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G111,,1,,,,,,1)</f>
+        <v>100.28028088968408</v>
+      </c>
+    </row>
+    <row r="112" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C112" s="6"/>
       <c r="F112" s="28">
         <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="G112" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F112,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>100.8915109694325</v>
+        <v>200</v>
+      </c>
+      <c r="G112" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F112,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:200,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H112" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F112,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>133.97826952181728</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G112,,1,,,,,,1)</f>
+        <v>67.52424468144919</v>
+      </c>
+      <c r="I112" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G112,,1,,,,,,1)</f>
+        <v>81.486200430179309</v>
       </c>
     </row>
     <row r="113" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C113" s="6"/>
       <c r="F113" s="28">
         <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="G113" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F113,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>95.897211390452497</v>
+        <v>250</v>
+      </c>
+      <c r="G113" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F113,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:250,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H113" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F113,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>127.65600499516576</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G113,,1,,,,,,1)</f>
+        <v>60.455586759966366</v>
+      </c>
+      <c r="I113" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G113,,1,,,,,,1)</f>
+        <v>68.696737719528429</v>
       </c>
     </row>
     <row r="114" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C114" s="6"/>
       <c r="F114" s="28">
         <f t="shared" si="3"/>
-        <v>350</v>
-      </c>
-      <c r="G114" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F114,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>92.14804900486584</v>
+        <v>300</v>
+      </c>
+      <c r="G114" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F114,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:300,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H114" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F114,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>122.30144240410141</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G114,,1,,,,,,1)</f>
+        <v>56.134878471440473</v>
+      </c>
+      <c r="I114" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G114,,1,,,,,,1)</f>
+        <v>62.573121385423093</v>
       </c>
     </row>
     <row r="115" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C115" s="6"/>
       <c r="F115" s="28">
         <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
-      <c r="G115" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F115,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>89.382325784946516</v>
+        <v>350</v>
+      </c>
+      <c r="G115" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F115,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:350,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H115" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F115,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>117.61730734733074</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G115,,1,,,,,,1)</f>
+        <v>53.392475824971093</v>
+      </c>
+      <c r="I115" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G115,,1,,,,,,1)</f>
+        <v>58.456444679357993</v>
       </c>
     </row>
     <row r="116" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C116" s="6"/>
       <c r="F116" s="28">
         <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-      <c r="G116" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F116,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>87.391202161697151</v>
+        <v>400</v>
+      </c>
+      <c r="G116" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F116,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:400,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H116" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F116,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>113.46543911001687</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G116,,1,,,,,,1)</f>
+        <v>51.603124243912944</v>
+      </c>
+      <c r="I116" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G116,,1,,,,,,1)</f>
+        <v>55.594704731972023</v>
       </c>
     </row>
     <row r="117" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C117" s="6"/>
       <c r="F117" s="28">
         <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="G117" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F117,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>86.013760055693396</v>
+        <v>450</v>
+      </c>
+      <c r="G117" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F117,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:450,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H117" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F117,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>109.81012024352475</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G117,,1,,,,,,1)</f>
+        <v>50.426184929738369</v>
+      </c>
+      <c r="I117" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G117,,1,,,,,,1)</f>
+        <v>53.578453320282577</v>
       </c>
     </row>
     <row r="118" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C118" s="6"/>
       <c r="F118" s="28">
         <f t="shared" si="3"/>
-        <v>550</v>
-      </c>
-      <c r="G118" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F118,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>85.12727876521744</v>
+        <v>500</v>
+      </c>
+      <c r="G118" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F118,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:500,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H118" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F118,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>106.60894856280333</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G118,,1,,,,,,1)</f>
+        <v>49.660887057782155</v>
+      </c>
+      <c r="I118" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G118,,1,,,,,,1)</f>
+        <v>52.133368267859503</v>
       </c>
     </row>
     <row r="119" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C119" s="6"/>
       <c r="F119" s="28">
         <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="G119" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F119,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>84.349333936147488</v>
+        <v>550</v>
+      </c>
+      <c r="G119" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F119,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:550,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H119" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F119,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>103.81739774961906</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G119,,1,,,,,,1)</f>
+        <v>49.182548528359426</v>
+      </c>
+      <c r="I119" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G119,,1,,,,,,1)</f>
+        <v>51.092396405366664</v>
       </c>
     </row>
     <row r="120" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C120" s="6"/>
       <c r="F120" s="28">
         <f t="shared" si="3"/>
-        <v>650</v>
-      </c>
-      <c r="G120" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F120,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>84.210484325611262</v>
+        <v>600</v>
+      </c>
+      <c r="G120" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F120,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:600,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H120" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F120,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>101.39190269388614</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G120,,1,,,,,,1)</f>
+        <v>48.910279555264623</v>
+      </c>
+      <c r="I120" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G120,,1,,,,,,1)</f>
+        <v>50.34546081911855</v>
       </c>
     </row>
     <row r="121" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C121" s="6"/>
       <c r="F121" s="28">
         <f t="shared" si="3"/>
-        <v>700</v>
-      </c>
-      <c r="G121" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F121,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>84.075891502023651</v>
+        <v>650</v>
+      </c>
+      <c r="G121" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F121,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:650,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H121" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F121,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>99.291681024498885</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G121,,1,,,,,,1)</f>
+        <v>48.789640850119817</v>
+      </c>
+      <c r="I121" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G121,,1,,,,,,1)</f>
+        <v>49.81761457055422</v>
       </c>
     </row>
     <row r="122" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F122" s="28">
         <f t="shared" si="3"/>
-        <v>750</v>
-      </c>
-      <c r="G122" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F122,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>84.450806351403813</v>
+        <v>700</v>
+      </c>
+      <c r="G122" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F122,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:700,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H122" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F122,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>97.479627879870009</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G122,,1,,,,,,1)</f>
+        <v>49.107404074937797</v>
+      </c>
+      <c r="I122" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G122,,1,,,,,,1)</f>
+        <v>49.456351003293491</v>
       </c>
     </row>
     <row r="123" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F123" s="28">
         <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-      <c r="G123" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F123,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>84.763607640238448</v>
+        <v>750</v>
+      </c>
+      <c r="G123" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F123,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:750,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H123" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F123,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>95.922602255919841</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G123,,1,,,,,,1)</f>
+        <v>49.479080996221334</v>
+      </c>
+      <c r="I123" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G123,,1,,,,,,1)</f>
+        <v>49.223957093129769</v>
       </c>
     </row>
     <row r="124" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F124" s="28">
         <f t="shared" si="3"/>
-        <v>850</v>
-      </c>
-      <c r="G124" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F124,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>85.505103500197976</v>
+        <v>800</v>
+      </c>
+      <c r="G124" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F124,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:800,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H124" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F124,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>94.591350741869491</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G124,,1,,,,,,1)</f>
+        <v>51.308059393520935</v>
+      </c>
+      <c r="I124" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G124,,1,,,,,,1)</f>
+        <v>49.092748960356374</v>
       </c>
     </row>
     <row r="125" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F125" s="28">
-        <f>F124+50</f>
-        <v>900</v>
-      </c>
-      <c r="G125" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F125,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>86.139496567545009</v>
+        <f t="shared" si="3"/>
+        <v>850</v>
+      </c>
+      <c r="G125" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F125,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:850,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H125" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F125,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>93.460237817299571</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G125,,1,,,,,,1)</f>
+        <v>53.136097923585531</v>
+      </c>
+      <c r="I125" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G125,,1,,,,,,1)</f>
+        <v>49.042012437543342</v>
       </c>
     </row>
     <row r="126" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F126" s="28">
-        <f t="shared" si="3"/>
-        <v>950</v>
-      </c>
-      <c r="G126" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F126,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>87.150893770893006</v>
+        <f>F125+50</f>
+        <v>900</v>
+      </c>
+      <c r="G126" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F126,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:900,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H126" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F126,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>92.506890117347865</v>
-      </c>
-      <c r="K126" t="s">
-        <v>11</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G126,,1,,,,,,1)</f>
+        <v>55.65437546097359</v>
+      </c>
+      <c r="I126" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G126,,1,,,,,,1)</f>
+        <v>49.055984714068487</v>
       </c>
     </row>
     <row r="127" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F127" s="28">
         <f t="shared" si="3"/>
+        <v>950</v>
+      </c>
+      <c r="G127" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F127,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:950,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+      </c>
+      <c r="H127" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G127,,1,,,,,,1)</f>
+        <v>58.196440871464539</v>
+      </c>
+      <c r="I127" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G127,,1,,,,,,1)</f>
+        <v>49.558010743650932</v>
+      </c>
+      <c r="K127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F128" s="28">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="G127" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,fw_,F127,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>88.021957420337074</v>
-      </c>
-      <c r="H127" s="29">
-        <f>[1]!tr_BB_pwf_atma(Dcas_,Hmes_,$C$22,Udl_,Pbuf_,Qtest_,$H$105,F127,gamma_oil_,Pb_,Bob_,Tres_,Dtub_out_,gamma_gas_,0)</f>
-        <v>91.711818311677547</v>
-      </c>
-    </row>
-    <row r="137" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K137" s="7"/>
+      <c r="G128" s="34" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F128,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1000,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+      </c>
+      <c r="H128" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G128,,1,,,,,,1)</f>
+        <v>60.66371047453346</v>
+      </c>
+      <c r="I128" s="29">
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_2,Pbuf_,Pcas_,Wellstr1_,G128,,1,,,,,,1)</f>
+        <v>50.961967375054151</v>
+      </c>
+    </row>
+    <row r="138" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K138" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excercises/excercises/100.self_flow_well.xlsx
+++ b/excercises/excercises/100.self_flow_well.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FBD2C7-1BC2-434C-8463-DD001516F226}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1802ABED-16CF-4C60-9C51-2F19EF3B1261}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14580" yWindow="3135" windowWidth="18000" windowHeight="9360" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="self_flow_well" sheetId="108" r:id="rId1"/>
@@ -5832,8 +5832,8 @@
   </sheetPr>
   <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" topLeftCell="F58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
